--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1581695.093915889</v>
+        <v>-1584271.41539713</v>
       </c>
     </row>
     <row r="7">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>162.6828958164083</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>12.34780376345866</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>112.1008347703272</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>42.49436559420737</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>95.44336989065501</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>312.6451573646</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>215.853652600693</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657078</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
         <v>89.59687541851115</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>21.36021322142074</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>73.97454661313884</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>7.823231064584944</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>307.9492910885719</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>117.7126336312588</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>25.42907173311878</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>9.795251606876045</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>172.0260335000785</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>92.58181139165723</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>108.5813113004299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833814</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261738</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545294</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002296</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002296</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3670,16 +3670,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1930.094988518961</v>
+        <v>1144.044138553435</v>
       </c>
       <c r="C2" t="n">
-        <v>1561.13247157855</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="D2" t="n">
-        <v>1202.866772971799</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E2" t="n">
-        <v>817.078520373555</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3313.133292555173</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3313.133292555173</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3059.602815829009</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3059.602815829009</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2706.834160558895</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2706.834160558895</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2316.694828583083</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>474.5483239471608</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>474.5483239471608</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>474.5483239471608</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>326.6352303647677</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>179.7452828668573</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>179.7452828668573</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>699.120390387711</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U4" t="n">
-        <v>699.120390387711</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="V4" t="n">
-        <v>656.1967887774006</v>
+        <v>162.9195607661784</v>
       </c>
       <c r="W4" t="n">
-        <v>656.1967887774006</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X4" t="n">
-        <v>656.1967887774006</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>656.1967887774006</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1506.363819949361</v>
+        <v>1879.82957821044</v>
       </c>
       <c r="C5" t="n">
-        <v>1137.401303008949</v>
+        <v>1510.867061270029</v>
       </c>
       <c r="D5" t="n">
-        <v>779.1356044021989</v>
+        <v>1152.601362663278</v>
       </c>
       <c r="E5" t="n">
-        <v>393.3473518039546</v>
+        <v>1152.601362663278</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678289</v>
+        <v>741.6154578736707</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>326.5430077186672</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
         <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989294</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="Y5" t="n">
-        <v>1892.963660013483</v>
+        <v>2266.429418274562</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.4137665647681</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="C7" t="n">
-        <v>185.4137665647681</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="D7" t="n">
-        <v>185.4137665647681</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E7" t="n">
-        <v>185.4137665647681</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>185.4137665647681</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>185.4137665647681</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450114</v>
+        <v>756.3347843200171</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450114</v>
+        <v>756.3347843200171</v>
       </c>
       <c r="U7" t="n">
-        <v>440.098254770655</v>
+        <v>756.3347843200171</v>
       </c>
       <c r="V7" t="n">
-        <v>185.4137665647681</v>
+        <v>756.3347843200171</v>
       </c>
       <c r="W7" t="n">
-        <v>185.4137665647681</v>
+        <v>756.3347843200171</v>
       </c>
       <c r="X7" t="n">
-        <v>185.4137665647681</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="Y7" t="n">
-        <v>185.4137665647681</v>
+        <v>528.3452334219998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1548.76669086687</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="C8" t="n">
-        <v>1179.804173926458</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D8" t="n">
-        <v>1179.804173926458</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>794.0159213282141</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>383.0300165386065</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>371.9979704240071</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>74.41437003277429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
@@ -4814,16 +4814,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906803</v>
+        <v>1966.893243807961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1935.366530930992</v>
+        <v>1576.753911832149</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>610.2994715124267</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>321.1966046380703</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V10" t="n">
-        <v>66.51211643218343</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W10" t="n">
-        <v>66.51211643218343</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218343</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218343</v>
+        <v>384.3315924698002</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,13 +5048,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,7 +5066,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5124,22 +5124,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5495,31 +5495,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5890,22 +5890,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797334</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,13 +6300,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6315,16 +6315,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319335</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6619,28 +6619,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7075,31 +7075,31 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311316</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,22 +7108,22 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,19 +7184,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7366,13 +7366,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,31 +7427,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2389.155899672379</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7555,10 +7555,10 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954143</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,70 +7780,70 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
         <v>1280.33868158239</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>220.0509458470723</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>96.83995802471718</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,7 +22711,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>32.65418014399361</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>32.13019070314237</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>191.079628445936</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>138.8202214113363</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>9.000252501566052</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>52.83923663127402</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>110.0033420516649</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823103</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1286504.493637068</v>
+        <v>1286504.493637067</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1286504.493637068</v>
+        <v>1286504.493637067</v>
       </c>
     </row>
     <row r="7">
@@ -26320,7 +26320,7 @@
         <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="F2" t="n">
         <v>141250.6549457511</v>
@@ -26329,7 +26329,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="H2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="I2" t="n">
         <v>141250.6549457511</v>
@@ -26341,10 +26341,10 @@
         <v>143682.3097262496</v>
       </c>
       <c r="L2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="M2" t="n">
         <v>143682.3097262496</v>
-      </c>
-      <c r="M2" t="n">
-        <v>143682.3097262497</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262496</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551174</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363176</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3456.426522020453</v>
+        <v>3456.426522020539</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26430,31 +26430,31 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16046.58397189192</v>
+      </c>
+      <c r="I4" t="n">
         <v>16046.58397189201</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16046.58397189195</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
+        <v>24037.44323498547</v>
+      </c>
+      <c r="L4" t="n">
+        <v>24037.44323498544</v>
+      </c>
+      <c r="M4" t="n">
+        <v>24037.44323498544</v>
+      </c>
+      <c r="N4" t="n">
+        <v>24037.44323498544</v>
+      </c>
+      <c r="O4" t="n">
         <v>24037.44323498545</v>
-      </c>
-      <c r="L4" t="n">
-        <v>24037.44323498545</v>
-      </c>
-      <c r="M4" t="n">
-        <v>24037.44323498543</v>
-      </c>
-      <c r="N4" t="n">
-        <v>24037.44323498539</v>
-      </c>
-      <c r="O4" t="n">
-        <v>24037.44323498541</v>
       </c>
       <c r="P4" t="n">
         <v>24037.44323498544</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1324090.26896548</v>
+        <v>-1324485.089906633</v>
       </c>
       <c r="C6" t="n">
-        <v>-57848.37493919619</v>
+        <v>-57848.37493919623</v>
       </c>
       <c r="D6" t="n">
-        <v>-57848.37493919622</v>
+        <v>-57848.37493919628</v>
       </c>
       <c r="E6" t="n">
-        <v>-301330.9206574031</v>
+        <v>-301365.658582839</v>
       </c>
       <c r="F6" t="n">
-        <v>24081.54114995201</v>
+        <v>24046.80322451632</v>
       </c>
       <c r="G6" t="n">
-        <v>24081.54114995201</v>
+        <v>24046.80322451626</v>
       </c>
       <c r="H6" t="n">
-        <v>24081.54114995204</v>
+        <v>24046.8032245163</v>
       </c>
       <c r="I6" t="n">
-        <v>24081.54114995201</v>
+        <v>24046.80322451626</v>
       </c>
       <c r="J6" t="n">
-        <v>-193449.6612473255</v>
+        <v>-193484.3991727611</v>
       </c>
       <c r="K6" t="n">
-        <v>-2946.967356283014</v>
+        <v>-2946.967356283043</v>
       </c>
       <c r="L6" t="n">
-        <v>16480.75063734878</v>
+        <v>16480.75063734881</v>
       </c>
       <c r="M6" t="n">
-        <v>-68574.27729816291</v>
+        <v>-68574.27729816303</v>
       </c>
       <c r="N6" t="n">
-        <v>16480.75063734883</v>
+        <v>16480.75063734877</v>
       </c>
       <c r="O6" t="n">
-        <v>16480.75063734878</v>
+        <v>16480.75063734873</v>
       </c>
       <c r="P6" t="n">
-        <v>-2946.967356283014</v>
+        <v>-2946.967356282985</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.2846474920397</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203967</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>64.22222970669571</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>209.6432777296206</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>94.23088837711146</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>78.7541117866275</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>123.3948016929</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>115.7944787183031</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>33.75369870834101</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>61.78180958989714</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,19 +28059,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>101.8363156449104</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>261.0939266034723</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31604,7 +31604,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31613,7 +31613,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31844,13 +31844,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>481.4297026814658</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>369.1789913099997</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>465.2641870096817</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>338.1920576279222</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32470,7 +32470,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663297</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32549,19 +32549,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>501.1621040024322</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,7 +32570,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>502.5232631188761</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>268.5330199802463</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35261,7 +35261,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35492,13 +35492,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>339.2956687594475</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>226.5827468655553</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>196.0580237059039</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>369.8203919190989</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,7 +36218,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>368.5488557045459</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016747</v>
@@ -36996,16 +36996,16 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
         <v>144.6869047919381</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016747</v>
@@ -37233,16 +37233,16 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
         <v>144.6869047919381</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>128.5512458942248</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
